--- a/outputs-r202/g__RUG762.xlsx
+++ b/outputs-r202/g__RUG762.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:N4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +500,11 @@
           <t>prediction</t>
         </is>
       </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>rejection-f</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -545,6 +550,11 @@
           <t>s__RUG762 sp900316455</t>
         </is>
       </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>s__RUG762 sp900316455</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -590,6 +600,11 @@
           <t>s__RUG762 sp900316495</t>
         </is>
       </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>s__RUG762 sp900316495</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -631,6 +646,11 @@
         <v>0.9999978692992537</v>
       </c>
       <c r="M4" t="inlineStr">
+        <is>
+          <t>s__RUG762 sp900321515</t>
+        </is>
+      </c>
+      <c r="N4" t="inlineStr">
         <is>
           <t>s__RUG762 sp900321515</t>
         </is>
